--- a/cheese-database.xlsx
+++ b/cheese-database.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="198"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="157">
   <si>
     <t>NAME</t>
   </si>
@@ -110,7 +114,7 @@
     <t>white</t>
   </si>
   <si>
-    <t>creamy, mild </t>
+    <t>creamy, mild</t>
   </si>
   <si>
     <t>fresh</t>
@@ -332,7 +336,7 @@
     <t>creamy, smooth</t>
   </si>
   <si>
-    <t>mild, nutty </t>
+    <t>mild, nutty</t>
   </si>
   <si>
     <t>derby</t>
@@ -380,7 +384,7 @@
     <t>toscanello</t>
   </si>
   <si>
-    <t>creamy, crumbly, dense, firm </t>
+    <t>creamy, crumbly, dense, firm</t>
   </si>
   <si>
     <t>bitter, nutty, salty, savory, sweet</t>
@@ -434,7 +438,7 @@
     <t>germany</t>
   </si>
   <si>
-    <t>dense </t>
+    <t>dense</t>
   </si>
   <si>
     <t>brown</t>
@@ -492,37 +496,22 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">http://www.cheese.com/</t>
+      <t>http://www.cheese.com/</t>
     </r>
+  </si>
+  <si>
+    <t>COMMON CULINARY USE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -540,7 +529,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -548,976 +537,1214 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.515306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.35204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="15.28515625"/>
+    <col min="2" max="2" width="16.7109375"/>
+    <col min="3" max="3" width="13.5703125"/>
+    <col min="4" max="4" width="9.28515625"/>
+    <col min="5" max="5" width="31.42578125"/>
+    <col min="6" max="6" width="12.7109375"/>
+    <col min="7" max="7" width="33.5703125"/>
+    <col min="8" max="8" width="20.85546875"/>
+    <col min="9" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="J1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" t="s">
         <v>101</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" t="s">
         <v>118</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" t="s">
         <v>119</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" t="s">
         <v>122</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" t="s">
         <v>125</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" t="s">
         <v>126</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" t="s">
         <v>129</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" t="s">
         <v>130</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" t="s">
         <v>134</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" t="s">
         <v>135</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>140</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" t="s">
         <v>144</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" t="s">
         <v>145</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>147</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" t="s">
         <v>148</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" t="s">
         <v>149</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>152</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" t="s">
         <v>153</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" t="s">
         <v>154</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>155</v>
       </c>
@@ -1531,10 +1758,9 @@
   <hyperlinks>
     <hyperlink ref="A33" r:id="rId1" display="http://www.cheese.com/"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/cheese-database.xlsx
+++ b/cheese-database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="174">
   <si>
     <t>NAME</t>
   </si>
@@ -195,42 +195,15 @@
     <t>buttery, creamy, mild, milky</t>
   </si>
   <si>
-    <t>swiss</t>
-  </si>
-  <si>
     <t>united states</t>
   </si>
   <si>
     <t>firm</t>
   </si>
   <si>
-    <t>nutty, sweet</t>
-  </si>
-  <si>
-    <t>pepper jack</t>
-  </si>
-  <si>
     <t>cream</t>
   </si>
   <si>
-    <t>herbaceous, sharp, spicy</t>
-  </si>
-  <si>
-    <t>aromatic, herbal</t>
-  </si>
-  <si>
-    <t>paneer</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>fresh firm</t>
-  </si>
-  <si>
-    <t>chewy, crumbly, firm</t>
-  </si>
-  <si>
     <t>cottage cheese</t>
   </si>
   <si>
@@ -243,61 +216,16 @@
     <t>sweet</t>
   </si>
   <si>
-    <t>tommes</t>
-  </si>
-  <si>
-    <t>Cow / goat</t>
-  </si>
-  <si>
-    <t>crumbly, dense, firm</t>
-  </si>
-  <si>
-    <t>buttery</t>
-  </si>
-  <si>
-    <t>earthy, fresh, milky</t>
-  </si>
-  <si>
-    <t>cheshire</t>
-  </si>
-  <si>
-    <t>crumbly, dense</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>Full-flavoured, mild, milky, tangy</t>
-  </si>
-  <si>
     <t>aromatic</t>
   </si>
   <si>
-    <t>saint paulin</t>
-  </si>
-  <si>
-    <t>creamy, firm</t>
-  </si>
-  <si>
-    <t>buttery, nutty</t>
-  </si>
-  <si>
-    <t>danbo</t>
-  </si>
-  <si>
     <t>denmark</t>
   </si>
   <si>
-    <t>firm, open, springy</t>
-  </si>
-  <si>
     <t>ivory</t>
   </si>
   <si>
     <t>buttery, mild, nutty</t>
-  </si>
-  <si>
-    <t>stinky, strong</t>
   </si>
   <si>
     <t>ragusano</t>
@@ -501,6 +429,129 @@
   </si>
   <si>
     <t>COMMON CULINARY USE</t>
+  </si>
+  <si>
+    <t>Table cheese, Melting</t>
+  </si>
+  <si>
+    <t>Table cheese, Sandwhich, Cooking, Melting</t>
+  </si>
+  <si>
+    <t>Sandwhich, Salad, Table cheese</t>
+  </si>
+  <si>
+    <t>Table cheese, Pasta, Salad</t>
+  </si>
+  <si>
+    <t>Pizza, Pasta, Salad</t>
+  </si>
+  <si>
+    <t>Salad</t>
+  </si>
+  <si>
+    <t>Salad, Pasta, Bread, Fruit</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Montery Jack</t>
+  </si>
+  <si>
+    <t>compact, creamy, firm</t>
+  </si>
+  <si>
+    <t>buttery, mild</t>
+  </si>
+  <si>
+    <t>Muenster</t>
+  </si>
+  <si>
+    <t>Melting</t>
+  </si>
+  <si>
+    <t>elastic, smooth, supple</t>
+  </si>
+  <si>
+    <t>mild, savory, sharp</t>
+  </si>
+  <si>
+    <t>Ricotta</t>
+  </si>
+  <si>
+    <t>fresh soft</t>
+  </si>
+  <si>
+    <t>creamy, fluffy, grainy</t>
+  </si>
+  <si>
+    <t>Cooking, dessert</t>
+  </si>
+  <si>
+    <t>Fruit, Dip</t>
+  </si>
+  <si>
+    <t>Gorgonzola</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>crumbly, firm</t>
+  </si>
+  <si>
+    <t>mild, sharp</t>
+  </si>
+  <si>
+    <t>nutty</t>
+  </si>
+  <si>
+    <t>Table cheese, Fruit, Salad, Pizza, Cooking</t>
+  </si>
+  <si>
+    <t>Cream cheese</t>
+  </si>
+  <si>
+    <t>creamy, spreadable</t>
+  </si>
+  <si>
+    <t>creamy, mild, sweet</t>
+  </si>
+  <si>
+    <t>fresh, pleasant</t>
+  </si>
+  <si>
+    <t>Spread, Cooking, Cheescake, Dip</t>
+  </si>
+  <si>
+    <t>Danish blue</t>
+  </si>
+  <si>
+    <t>soft, Blue - veined</t>
+  </si>
+  <si>
+    <t>semi soft, blue-veined</t>
+  </si>
+  <si>
+    <t>cream, crumbly</t>
+  </si>
+  <si>
+    <t>salty, sharp</t>
+  </si>
+  <si>
+    <t>Table cheese, salad</t>
+  </si>
+  <si>
+    <t>Dressings, Salad, Spreads</t>
+  </si>
+  <si>
+    <t>Jarlsberg</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>open, smooth, supple</t>
   </si>
 </sst>
 </file>
@@ -825,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -839,7 +890,9 @@
     <col min="6" max="6" width="12.7109375"/>
     <col min="7" max="7" width="33.5703125"/>
     <col min="8" max="8" width="20.85546875"/>
-    <col min="9" max="1025" width="11.5703125"/>
+    <col min="9" max="9" width="11.5703125"/>
+    <col min="10" max="10" width="29.140625" customWidth="1"/>
+    <col min="11" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -871,7 +924,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -902,6 +955,9 @@
       <c r="I2" t="s">
         <v>17</v>
       </c>
+      <c r="J2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -931,6 +987,9 @@
       <c r="I3" t="s">
         <v>17</v>
       </c>
+      <c r="J3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -960,6 +1019,9 @@
       <c r="I4" t="s">
         <v>17</v>
       </c>
+      <c r="J4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -989,6 +1051,9 @@
       <c r="I5" t="s">
         <v>17</v>
       </c>
+      <c r="J5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1018,6 +1083,9 @@
       <c r="I6" t="s">
         <v>45</v>
       </c>
+      <c r="J6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1047,6 +1115,9 @@
       <c r="I7" t="s">
         <v>17</v>
       </c>
+      <c r="J7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1076,6 +1147,9 @@
       <c r="I8" t="s">
         <v>17</v>
       </c>
+      <c r="J8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1105,115 +1179,127 @@
       <c r="I9" t="s">
         <v>45</v>
       </c>
+      <c r="J9" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
         <v>25</v>
       </c>
-      <c r="I10" t="s">
-        <v>45</v>
+      <c r="J10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="H11" t="s">
         <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
@@ -1221,126 +1307,141 @@
       <c r="I13" t="s">
         <v>25</v>
       </c>
+      <c r="J13" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="I14" t="s">
         <v>25</v>
       </c>
+      <c r="J14" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="I15" t="s">
         <v>45</v>
       </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1352,24 +1453,24 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1381,42 +1482,42 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
@@ -1425,9 +1526,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1439,24 +1540,24 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1465,16 +1566,16 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
@@ -1482,42 +1583,45 @@
       <c r="I22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -1526,56 +1630,56 @@
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="H24" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -1584,71 +1688,71 @@
         <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="H26" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="I26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="H27" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
         <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="H28" t="s">
         <v>25</v>
@@ -1657,12 +1761,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
@@ -1671,27 +1775,27 @@
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="H29" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="I29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
@@ -1700,45 +1804,45 @@
         <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
         <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="H30" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s">
         <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="H31" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="I31" t="s">
         <v>45</v>
@@ -1746,7 +1850,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>

--- a/cheese-database.xlsx
+++ b/cheese-database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cheese-classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="177">
   <si>
     <t>NAME</t>
   </si>
@@ -201,9 +201,6 @@
     <t>firm</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
     <t>cottage cheese</t>
   </si>
   <si>
@@ -228,54 +225,6 @@
     <t>buttery, mild, nutty</t>
   </si>
   <si>
-    <t>ragusano</t>
-  </si>
-  <si>
-    <t>chewy, open</t>
-  </si>
-  <si>
-    <t>savory, spicy, sweet</t>
-  </si>
-  <si>
-    <t>pleasant, sweet</t>
-  </si>
-  <si>
-    <t>huntsman</t>
-  </si>
-  <si>
-    <t>creamy, crumbly, dense, firm, smooth</t>
-  </si>
-  <si>
-    <t>golden orange</t>
-  </si>
-  <si>
-    <t>mild, nutty, spicy, strong, tangy</t>
-  </si>
-  <si>
-    <t>strong, sweet</t>
-  </si>
-  <si>
-    <t>greve</t>
-  </si>
-  <si>
-    <t>sweden</t>
-  </si>
-  <si>
-    <t>creamy, smooth</t>
-  </si>
-  <si>
-    <t>mild, nutty</t>
-  </si>
-  <si>
-    <t>derby</t>
-  </si>
-  <si>
-    <t>creamy, firm, open, smooth</t>
-  </si>
-  <si>
-    <t>buttery, mild, sweet</t>
-  </si>
-  <si>
     <t>mild</t>
   </si>
   <si>
@@ -291,36 +240,12 @@
     <t>spicy, strong</t>
   </si>
   <si>
-    <t>roncal</t>
-  </si>
-  <si>
     <t>sheep</t>
   </si>
   <si>
     <t>spain</t>
   </si>
   <si>
-    <t>firm, grainy, open, smooth</t>
-  </si>
-  <si>
-    <t>buttery, herbaceous, sharp, spicy, sweet</t>
-  </si>
-  <si>
-    <t>earthy, mushroom, nutty</t>
-  </si>
-  <si>
-    <t>toscanello</t>
-  </si>
-  <si>
-    <t>creamy, crumbly, dense, firm</t>
-  </si>
-  <si>
-    <t>bitter, nutty, salty, savory, sweet</t>
-  </si>
-  <si>
-    <t>grassy</t>
-  </si>
-  <si>
     <t>castigliano</t>
   </si>
   <si>
@@ -375,18 +300,6 @@
     <t>caramel, sweet</t>
   </si>
   <si>
-    <t>swaledale</t>
-  </si>
-  <si>
-    <t>Cow / sheep</t>
-  </si>
-  <si>
-    <t>smooth, sweet</t>
-  </si>
-  <si>
-    <t>floral</t>
-  </si>
-  <si>
     <t>calcagno</t>
   </si>
   <si>
@@ -397,21 +310,6 @@
   </si>
   <si>
     <t>herbal</t>
-  </si>
-  <si>
-    <t>crozier</t>
-  </si>
-  <si>
-    <t>ireland</t>
-  </si>
-  <si>
-    <t>chalky, creamy, crumbly</t>
-  </si>
-  <si>
-    <t>acidic, creamy, mild</t>
-  </si>
-  <si>
-    <t>rich, strong</t>
   </si>
   <si>
     <r>
@@ -552,6 +450,117 @@
   </si>
   <si>
     <t>open, smooth, supple</t>
+  </si>
+  <si>
+    <t>provolone</t>
+  </si>
+  <si>
+    <t>firm, grainy, open</t>
+  </si>
+  <si>
+    <t>buttery, mild, sharp, spicy, sweet, tangy</t>
+  </si>
+  <si>
+    <t>pleasant</t>
+  </si>
+  <si>
+    <t>Table cheese, Bread, Sandwiches, Melting</t>
+  </si>
+  <si>
+    <t>manchego</t>
+  </si>
+  <si>
+    <t>fruity, nutty, sweet,  tangy</t>
+  </si>
+  <si>
+    <t>Table cheese, salads</t>
+  </si>
+  <si>
+    <t>cantal</t>
+  </si>
+  <si>
+    <t>brittle, close, compact, crumble, firm, smooth</t>
+  </si>
+  <si>
+    <t>buttery, milky, nutty, strong, sweet, tangy</t>
+  </si>
+  <si>
+    <t>earthy, milky, strong</t>
+  </si>
+  <si>
+    <t>Salad, Sandwich, Fruit</t>
+  </si>
+  <si>
+    <t>Roquefort</t>
+  </si>
+  <si>
+    <t>salty, sharp, tangy</t>
+  </si>
+  <si>
+    <t>Table cheese, Salad</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Fromage blanc</t>
+  </si>
+  <si>
+    <t>milky, smooth</t>
+  </si>
+  <si>
+    <t>fresh, mild</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>Explorateur</t>
+  </si>
+  <si>
+    <t>smooth</t>
+  </si>
+  <si>
+    <t>Table cheese, champagne</t>
+  </si>
+  <si>
+    <t>Reblochon</t>
+  </si>
+  <si>
+    <t>close, compact, smooth, supple</t>
+  </si>
+  <si>
+    <t>fruity, mild, nutty</t>
+  </si>
+  <si>
+    <t>earthy, herbal</t>
+  </si>
+  <si>
+    <t>Table cheese, Fruit, Bread</t>
+  </si>
+  <si>
+    <t>Table cheese</t>
+  </si>
+  <si>
+    <t>Salad, Sandwich</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>Sapsago</t>
+  </si>
+  <si>
+    <t>crumbly, dense, firm</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>full-flavoured, spicy, strong</t>
+  </si>
+  <si>
+    <t>Dips, Cooking</t>
   </si>
 </sst>
 </file>
@@ -876,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -924,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -956,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -988,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1020,7 +1029,7 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1052,7 +1061,7 @@
         <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1084,7 +1093,7 @@
         <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1116,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1148,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1180,12 +1189,12 @@
         <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1197,13 +1206,13 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -1212,12 +1221,12 @@
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1229,27 +1238,27 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1258,16 +1267,16 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
         <v>32</v>
@@ -1276,30 +1285,30 @@
         <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
@@ -1308,44 +1317,44 @@
         <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="I14" t="s">
         <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1354,48 +1363,48 @@
         <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
@@ -1404,44 +1413,44 @@
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1450,114 +1459,126 @@
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="I21" t="s">
         <v>45</v>
       </c>
+      <c r="J21" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1566,16 +1587,16 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
@@ -1584,76 +1605,82 @@
         <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
       </c>
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="H24" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
       </c>
+      <c r="J24" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -1665,21 +1692,24 @@
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
       </c>
+      <c r="J25" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -1691,68 +1721,74 @@
         <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s">
         <v>25</v>
       </c>
+      <c r="J26" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I27" t="s">
         <v>45</v>
       </c>
+      <c r="J27" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
         <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s">
         <v>25</v>
@@ -1760,42 +1796,48 @@
       <c r="I28" t="s">
         <v>25</v>
       </c>
+      <c r="J28" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="G29" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="I29" t="s">
         <v>45</v>
       </c>
+      <c r="J29" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
@@ -1804,53 +1846,59 @@
         <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="F30" t="s">
         <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="H30" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
       </c>
+      <c r="J30" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
         <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="H31" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1863,7 +1911,7 @@
     <hyperlink ref="A33" r:id="rId1" display="http://www.cheese.com/"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
